--- a/Midterm-exam/evidence/spreadsheets/per_site/www.ullensaker.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.ullensaker.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>11094.083999999997</v>
+        <v>11053.963500000002</v>
       </c>
       <c r="C2">
-        <v>8828.228000000001</v>
+        <v>8858.097</v>
       </c>
       <c r="D2">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="E2">
-        <v>11220.368999999999</v>
+        <v>11173.613950000003</v>
       </c>
       <c r="F2">
-        <v>72.5</v>
+        <v>70</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>8828.228000000001</v>
+        <v>8858.097</v>
       </c>
       <c r="I2">
         <v>56</v>
       </c>
       <c r="J2">
-        <v>1594994</v>
+        <v>1579801</v>
       </c>
       <c r="K2">
         <v>40</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10971.234999999999</v>
+        <v>10887.736</v>
       </c>
       <c r="C3">
-        <v>8805.235</v>
+        <v>8794.002999999999</v>
       </c>
       <c r="D3">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E3">
-        <v>11104.8871</v>
+        <v>10997.693700000002</v>
       </c>
       <c r="F3">
-        <v>71</v>
+        <v>66.5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8805.235</v>
+        <v>8794.002999999999</v>
       </c>
       <c r="I3">
         <v>56</v>
       </c>
       <c r="J3">
-        <v>1578571</v>
+        <v>1580806</v>
       </c>
       <c r="K3">
         <v>40</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10694.7435</v>
+        <v>10940.431500000002</v>
       </c>
       <c r="C4">
-        <v>8775.349</v>
+        <v>8822.076</v>
       </c>
       <c r="D4">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E4">
-        <v>10803.874950000001</v>
+        <v>11051.019250000001</v>
       </c>
       <c r="F4">
-        <v>52</v>
+        <v>68.5</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8775.349</v>
+        <v>8822.076</v>
       </c>
       <c r="I4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J4">
-        <v>1578172</v>
+        <v>1579818</v>
       </c>
       <c r="K4">
         <v>40</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>10971.234999999999</v>
+        <v>10940.431500000002</v>
       </c>
       <c r="C5">
-        <v>8805.235</v>
+        <v>8822.076</v>
       </c>
       <c r="D5">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E5">
-        <v>11104.8871</v>
+        <v>11051.019250000001</v>
       </c>
       <c r="F5">
-        <v>71</v>
+        <v>68.5</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8805.235</v>
+        <v>8822.076</v>
       </c>
       <c r="I5">
         <v>56</v>
       </c>
       <c r="J5">
-        <v>1578571</v>
+        <v>1579818</v>
       </c>
       <c r="K5">
         <v>40</v>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>17388</v>
+        <v>17389</v>
       </c>
       <c r="F2">
         <v>74312</v>
       </c>
       <c r="G2">
-        <v>0.005056656444</v>
+        <v>0.005056947256999999</v>
       </c>
       <c r="H2">
-        <v>0.0066610193832</v>
+        <v>0.006661402464599999</v>
       </c>
     </row>
     <row r="3">
@@ -738,16 +738,16 @@
         <v>text/css</v>
       </c>
       <c r="E6">
-        <v>5329</v>
+        <v>5323</v>
       </c>
       <c r="F6">
         <v>25451</v>
       </c>
       <c r="G6">
-        <v>0.0015497424769999998</v>
+        <v>0.0015479975989999997</v>
       </c>
       <c r="H6">
-        <v>0.0020414407806000003</v>
+        <v>0.0020391422922</v>
       </c>
     </row>
     <row r="7">
@@ -764,16 +764,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E7">
-        <v>3196</v>
+        <v>3198</v>
       </c>
       <c r="F7">
         <v>993</v>
       </c>
       <c r="G7">
-        <v>0.0009294383479999999</v>
+        <v>0.0009300199739999998</v>
       </c>
       <c r="H7">
-        <v>0.0012243281544000002</v>
+        <v>0.0012250943172000001</v>
       </c>
     </row>
     <row r="8">
@@ -790,16 +790,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E8">
-        <v>458185</v>
+        <v>458194</v>
       </c>
       <c r="F8">
         <v>1348312</v>
       </c>
       <c r="G8">
-        <v>0.13324615440499998</v>
+        <v>0.13324877172199998</v>
       </c>
       <c r="H8">
-        <v>0.175522151259</v>
+        <v>0.17552559899159997</v>
       </c>
     </row>
     <row r="9">
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="str">
-        <v>https://www.youtube.com/s/player/19712d96/www-widgetapi.vflset/www-widgetapi.js</v>
+        <v>https://www.youtube.com/s/player/ef5f17ca/www-widgetapi.vflset/www-widgetapi.js</v>
       </c>
       <c r="C17" t="str">
         <v>Script</v>
@@ -1009,16 +1009,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E17">
-        <v>10434</v>
+        <v>10433</v>
       </c>
       <c r="F17">
         <v>30432</v>
       </c>
       <c r="G17">
-        <v>0.0030343428419999994</v>
+        <v>0.0030340520289999996</v>
       </c>
       <c r="H17">
-        <v>0.0039970713276000006</v>
+        <v>0.0039966882462000005</v>
       </c>
     </row>
     <row r="18">
@@ -1061,16 +1061,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E19">
-        <v>13619</v>
+        <v>13611</v>
       </c>
       <c r="F19">
         <v>45188</v>
       </c>
       <c r="G19">
-        <v>0.003960582247</v>
+        <v>0.003958255742999999</v>
       </c>
       <c r="H19">
-        <v>0.0052171855866</v>
+        <v>0.0052141209354</v>
       </c>
     </row>
     <row r="20">
@@ -1240,16 +1240,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E26">
-        <v>23427</v>
+        <v>23186</v>
       </c>
       <c r="F26">
         <v>22846</v>
       </c>
       <c r="G26">
-        <v>0.006812876151</v>
+        <v>0.006742790217999999</v>
       </c>
       <c r="H26">
-        <v>0.008974447957800002</v>
+        <v>0.008882125340400001</v>
       </c>
     </row>
     <row r="27">
@@ -1266,16 +1266,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E27">
-        <v>56021</v>
+        <v>56254</v>
       </c>
       <c r="F27">
         <v>55638</v>
       </c>
       <c r="G27">
-        <v>0.016291635072999997</v>
+        <v>0.016359394502</v>
       </c>
       <c r="H27">
-        <v>0.021460603109400005</v>
+        <v>0.021549861075600002</v>
       </c>
     </row>
     <row r="28">
@@ -1292,16 +1292,16 @@
         <v>image/png</v>
       </c>
       <c r="E28">
-        <v>251976</v>
+        <v>251978</v>
       </c>
       <c r="F28">
         <v>251420</v>
       </c>
       <c r="G28">
-        <v>0.073277896488</v>
+        <v>0.073278478114</v>
       </c>
       <c r="H28">
-        <v>0.0965273188464</v>
+        <v>0.0965280850092</v>
       </c>
     </row>
     <row r="29">
@@ -1318,16 +1318,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E29">
-        <v>19943</v>
+        <v>19944</v>
       </c>
       <c r="F29">
         <v>19690</v>
       </c>
       <c r="G29">
-        <v>0.0057996836589999995</v>
+        <v>0.005799974471999999</v>
       </c>
       <c r="H29">
-        <v>0.0076397923602</v>
+        <v>0.0076401754416</v>
       </c>
     </row>
     <row r="30">
@@ -1344,16 +1344,16 @@
         <v>text/css</v>
       </c>
       <c r="E30">
-        <v>22057</v>
+        <v>22174</v>
       </c>
       <c r="F30">
-        <v>255939</v>
+        <v>257200</v>
       </c>
       <c r="G30">
-        <v>0.006414462340999999</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H30">
-        <v>0.0084496264398</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="31">
@@ -1387,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.ullensaker.kommune.no%2F&amp;title=Ullensaker&amp;res=412x823&amp;accountid=6019370&amp;rt=822&amp;luid=4991d027-3a18-57c7-dc0e-e4e957a99f3f&amp;dnt=true&amp;prev=8e26e6b7-2d35-addf-7a9f-80eb25e4cb54&amp;rnd=98604</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.ullensaker.kommune.no%2F&amp;title=Ullensaker&amp;res=412x823&amp;accountid=6019370&amp;rt=812&amp;luid=764eb221-2690-4560-d0b9-66f668c11bf0&amp;dnt=true&amp;prev=a41cf251-1740-3470-c430-485e4ead84bc&amp;rnd=22734</v>
       </c>
       <c r="C32" t="str">
         <v>Image</v>
@@ -1523,16 +1523,16 @@
         <v>text/json</v>
       </c>
       <c r="E37">
-        <v>7417</v>
+        <v>7416</v>
       </c>
       <c r="F37">
         <v>28951</v>
       </c>
       <c r="G37">
-        <v>0.0021569600209999998</v>
+        <v>0.0021566692079999995</v>
       </c>
       <c r="H37">
-        <v>0.0028413147438</v>
+        <v>0.0028409316624000004</v>
       </c>
     </row>
     <row r="38">
@@ -1549,16 +1549,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E38">
-        <v>25701</v>
+        <v>10400</v>
       </c>
       <c r="F38">
         <v>25323</v>
       </c>
       <c r="G38">
-        <v>0.007474184912999999</v>
+        <v>0.0030244551999999997</v>
       </c>
       <c r="H38">
-        <v>0.0098455750614</v>
+        <v>0.003984046560000001</v>
       </c>
     </row>
     <row r="39">
@@ -1601,13 +1601,13 @@
         <v>text/html</v>
       </c>
       <c r="E40">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G40">
-        <v>0.000023555852999999997</v>
+        <v>0.000016867153999999998</v>
       </c>
       <c r="H40">
-        <v>0.0000310295934</v>
+        <v>0.000022218721200000005</v>
       </c>
     </row>
     <row r="41">
@@ -1624,16 +1624,16 @@
         <v>image/x-icon</v>
       </c>
       <c r="E41">
-        <v>1242</v>
+        <v>1265</v>
       </c>
       <c r="F41">
         <v>1150</v>
       </c>
       <c r="G41">
-        <v>0.00036118974599999993</v>
+        <v>0.000367878445</v>
       </c>
       <c r="H41">
-        <v>0.00047578709880000006</v>
+        <v>0.00048459797099999994</v>
       </c>
     </row>
     <row r="42">
@@ -1650,16 +1650,16 @@
         <v>text/html</v>
       </c>
       <c r="E42">
-        <v>17389</v>
+        <v>17388</v>
       </c>
       <c r="F42">
         <v>74312</v>
       </c>
       <c r="G42">
-        <v>0.005056947256999999</v>
+        <v>0.005056656444</v>
       </c>
       <c r="H42">
-        <v>0.006661402464599999</v>
+        <v>0.0066610193832</v>
       </c>
     </row>
     <row r="43">
@@ -1676,16 +1676,16 @@
         <v>text/css</v>
       </c>
       <c r="E43">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="F43">
         <v>880</v>
       </c>
       <c r="G43">
-        <v>0.00018408462899999997</v>
+        <v>0.00018757438499999996</v>
       </c>
       <c r="H43">
-        <v>0.0002424905262</v>
+        <v>0.000247087503</v>
       </c>
     </row>
     <row r="44">
@@ -1728,16 +1728,16 @@
         <v>text/css</v>
       </c>
       <c r="E45">
-        <v>110961</v>
+        <v>110943</v>
       </c>
       <c r="F45">
         <v>282223</v>
       </c>
       <c r="G45">
-        <v>0.032268901292999995</v>
+        <v>0.03226366665899999</v>
       </c>
       <c r="H45">
-        <v>0.04250709522539999</v>
+        <v>0.0425001997602</v>
       </c>
     </row>
     <row r="46">
@@ -1754,16 +1754,16 @@
         <v>text/css</v>
       </c>
       <c r="E46">
-        <v>4174</v>
+        <v>5323</v>
       </c>
       <c r="F46">
         <v>25451</v>
       </c>
       <c r="G46">
-        <v>0.0012138534619999999</v>
+        <v>0.0015479975989999997</v>
       </c>
       <c r="H46">
-        <v>0.0015989817636000003</v>
+        <v>0.0020391422922</v>
       </c>
     </row>
     <row r="47">
@@ -1780,16 +1780,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E47">
-        <v>3576</v>
+        <v>3577</v>
       </c>
       <c r="F47">
         <v>993</v>
       </c>
       <c r="G47">
-        <v>0.0010399472879999998</v>
+        <v>0.0010402381009999998</v>
       </c>
       <c r="H47">
-        <v>0.0013698990864000004</v>
+        <v>0.0013702821678000003</v>
       </c>
     </row>
     <row r="48">
@@ -1832,13 +1832,13 @@
         <v>text/html</v>
       </c>
       <c r="E49">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="G49">
-        <v>0.000022392600999999996</v>
+        <v>0.000015703902</v>
       </c>
       <c r="H49">
-        <v>0.000029497267800000006</v>
+        <v>0.0000206863956</v>
       </c>
     </row>
     <row r="50">
@@ -2016,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="B57" t="str">
-        <v>https://www.youtube.com/s/player/19712d96/www-widgetapi.vflset/www-widgetapi.js</v>
+        <v>https://www.youtube.com/s/player/ef5f17ca/www-widgetapi.vflset/www-widgetapi.js</v>
       </c>
       <c r="C57" t="str">
         <v>Script</v>
@@ -2051,16 +2051,16 @@
         <v>image/png</v>
       </c>
       <c r="E58">
-        <v>3363</v>
+        <v>3340</v>
       </c>
       <c r="F58">
         <v>3251</v>
       </c>
       <c r="G58">
-        <v>0.000978004119</v>
+        <v>0.0009713154199999999</v>
       </c>
       <c r="H58">
-        <v>0.0012883027482</v>
+        <v>0.0012794918760000002</v>
       </c>
     </row>
     <row r="59">
@@ -2077,16 +2077,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E59">
-        <v>13620</v>
+        <v>13625</v>
       </c>
       <c r="F59">
         <v>45188</v>
       </c>
       <c r="G59">
-        <v>0.00396087306</v>
+        <v>0.003962327125</v>
       </c>
       <c r="H59">
-        <v>0.0052175686680000005</v>
+        <v>0.005219484075000001</v>
       </c>
     </row>
     <row r="60">
@@ -2256,16 +2256,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E66">
-        <v>23195</v>
+        <v>23467</v>
       </c>
       <c r="F66">
         <v>22846</v>
       </c>
       <c r="G66">
-        <v>0.006745407534999999</v>
+        <v>0.006824508670999999</v>
       </c>
       <c r="H66">
-        <v>0.008885573073000001</v>
+        <v>0.0089897712138</v>
       </c>
     </row>
     <row r="67">
@@ -2282,16 +2282,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E67">
-        <v>56253</v>
+        <v>56235</v>
       </c>
       <c r="F67">
         <v>55638</v>
       </c>
       <c r="G67">
-        <v>0.016359103689</v>
+        <v>0.016353869054999998</v>
       </c>
       <c r="H67">
-        <v>0.0215494779942</v>
+        <v>0.021542582529</v>
       </c>
     </row>
     <row r="68">
@@ -2308,16 +2308,16 @@
         <v>image/png</v>
       </c>
       <c r="E68">
-        <v>251985</v>
+        <v>252106</v>
       </c>
       <c r="F68">
         <v>251420</v>
       </c>
       <c r="G68">
-        <v>0.07328051380499999</v>
+        <v>0.073315702178</v>
       </c>
       <c r="H68">
-        <v>0.09653076657899999</v>
+        <v>0.0965771194284</v>
       </c>
     </row>
     <row r="69">
@@ -2334,16 +2334,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E69">
-        <v>19952</v>
+        <v>20166</v>
       </c>
       <c r="F69">
         <v>19690</v>
       </c>
       <c r="G69">
-        <v>0.005802300975999999</v>
+        <v>0.005864534957999999</v>
       </c>
       <c r="H69">
-        <v>0.007643240092800001</v>
+        <v>0.0077252195124</v>
       </c>
     </row>
     <row r="70">
@@ -2360,16 +2360,16 @@
         <v>text/css</v>
       </c>
       <c r="E70">
-        <v>22057</v>
+        <v>22174</v>
       </c>
       <c r="F70">
-        <v>255939</v>
+        <v>257200</v>
       </c>
       <c r="G70">
-        <v>0.006414462340999999</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H70">
-        <v>0.0084496264398</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="71">
@@ -2403,7 +2403,7 @@
         <v>2</v>
       </c>
       <c r="B72" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.ullensaker.kommune.no%2F&amp;title=Ullensaker&amp;res=412x823&amp;accountid=6019370&amp;rt=751&amp;luid=c114b136-e910-f318-5e01-fcfd122e778f&amp;dnt=true&amp;prev=e660d1e4-546f-6966-444f-c4d77eafa5f6&amp;rnd=18312</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.ullensaker.kommune.no%2F&amp;title=Ullensaker&amp;res=412x823&amp;accountid=6019370&amp;rt=749&amp;luid=97134075-012b-dcf4-0d3f-4bd596da7556&amp;dnt=true&amp;prev=1b1f88f7-9917-5ebf-59c8-d1a3e355d290&amp;rnd=53132</v>
       </c>
       <c r="C72" t="str">
         <v>Image</v>
@@ -2464,16 +2464,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E74">
-        <v>2064</v>
+        <v>2444</v>
       </c>
       <c r="F74">
         <v>7310</v>
       </c>
       <c r="G74">
-        <v>0.0006002380319999999</v>
+        <v>0.0007107469719999999</v>
       </c>
       <c r="H74">
-        <v>0.0007906800096</v>
+        <v>0.0009362509416</v>
       </c>
     </row>
     <row r="75">
@@ -2539,16 +2539,16 @@
         <v>text/json</v>
       </c>
       <c r="E77">
-        <v>7416</v>
+        <v>7417</v>
       </c>
       <c r="F77">
         <v>28951</v>
       </c>
       <c r="G77">
-        <v>0.0021566692079999995</v>
+        <v>0.0021569600209999998</v>
       </c>
       <c r="H77">
-        <v>0.0028409316624000004</v>
+        <v>0.0028413147438</v>
       </c>
     </row>
     <row r="78">
@@ -2640,16 +2640,16 @@
         <v>image/x-icon</v>
       </c>
       <c r="E81">
-        <v>1242</v>
+        <v>1288</v>
       </c>
       <c r="F81">
         <v>1150</v>
       </c>
       <c r="G81">
-        <v>0.00036118974599999993</v>
+        <v>0.000374567144</v>
       </c>
       <c r="H81">
-        <v>0.00047578709880000006</v>
+        <v>0.0004934088432000001</v>
       </c>
     </row>
     <row r="82">
@@ -2666,16 +2666,16 @@
         <v>text/html</v>
       </c>
       <c r="E82">
-        <v>17389</v>
+        <v>17388</v>
       </c>
       <c r="F82">
         <v>74312</v>
       </c>
       <c r="G82">
-        <v>0.005056947256999999</v>
+        <v>0.005056656444</v>
       </c>
       <c r="H82">
-        <v>0.006661402464599999</v>
+        <v>0.0066610193832</v>
       </c>
     </row>
     <row r="83">
@@ -2692,16 +2692,16 @@
         <v>text/css</v>
       </c>
       <c r="E83">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="F83">
         <v>880</v>
       </c>
       <c r="G83">
-        <v>0.00018408462899999997</v>
+        <v>0.00018757438499999996</v>
       </c>
       <c r="H83">
-        <v>0.0002424905262</v>
+        <v>0.000247087503</v>
       </c>
     </row>
     <row r="84">
@@ -2770,16 +2770,16 @@
         <v>text/css</v>
       </c>
       <c r="E86">
-        <v>4174</v>
+        <v>5323</v>
       </c>
       <c r="F86">
         <v>25451</v>
       </c>
       <c r="G86">
-        <v>0.0012138534619999999</v>
+        <v>0.0015479975989999997</v>
       </c>
       <c r="H86">
-        <v>0.0015989817636000003</v>
+        <v>0.0020391422922</v>
       </c>
     </row>
     <row r="87">
@@ -2796,16 +2796,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E87">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="F87">
         <v>993</v>
       </c>
       <c r="G87">
-        <v>0.0009297291609999998</v>
+        <v>0.0009300199739999998</v>
       </c>
       <c r="H87">
-        <v>0.0012247112358</v>
+        <v>0.0012250943172000001</v>
       </c>
     </row>
     <row r="88">
@@ -3032,25 +3032,25 @@
         <v>3</v>
       </c>
       <c r="B97" t="str">
-        <v>https://www.youtube.com/s/player/19712d96/www-widgetapi.vflset/www-widgetapi.js</v>
+        <v>https://www.ullensaker.kommune.no/siteassets/30-bilder/logoer/ullensaker.png</v>
       </c>
       <c r="C97" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D97" t="str">
-        <v>text/javascript</v>
+        <v>image/png</v>
       </c>
       <c r="E97">
-        <v>10434</v>
+        <v>3340</v>
       </c>
       <c r="F97">
-        <v>30432</v>
+        <v>3251</v>
       </c>
       <c r="G97">
-        <v>0.0030343428419999994</v>
+        <v>0.0009713154199999999</v>
       </c>
       <c r="H97">
-        <v>0.0039970713276000006</v>
+        <v>0.0012794918760000002</v>
       </c>
     </row>
     <row r="98">
@@ -3058,25 +3058,25 @@
         <v>3</v>
       </c>
       <c r="B98" t="str">
-        <v>https://www.ullensaker.kommune.no/siteassets/30-bilder/logoer/ullensaker.png</v>
+        <v>https://www.youtube.com/s/player/ef5f17ca/www-widgetapi.vflset/www-widgetapi.js</v>
       </c>
       <c r="C98" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D98" t="str">
-        <v>image/png</v>
+        <v>text/javascript</v>
       </c>
       <c r="E98">
-        <v>3340</v>
+        <v>10432</v>
       </c>
       <c r="F98">
-        <v>3251</v>
+        <v>30432</v>
       </c>
       <c r="G98">
-        <v>0.0009713154199999999</v>
+        <v>0.0030337612159999994</v>
       </c>
       <c r="H98">
-        <v>0.0012794918760000002</v>
+        <v>0.0039963051648</v>
       </c>
     </row>
     <row r="99">
@@ -3093,16 +3093,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E99">
-        <v>13614</v>
+        <v>13622</v>
       </c>
       <c r="F99">
         <v>45188</v>
       </c>
       <c r="G99">
-        <v>0.003959128181999999</v>
+        <v>0.0039614546859999995</v>
       </c>
       <c r="H99">
-        <v>0.005215270179600001</v>
+        <v>0.005218334830800001</v>
       </c>
     </row>
     <row r="100">
@@ -3298,16 +3298,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E107">
-        <v>56031</v>
+        <v>56245</v>
       </c>
       <c r="F107">
         <v>55638</v>
       </c>
       <c r="G107">
-        <v>0.016294543202999997</v>
+        <v>0.016356777184999997</v>
       </c>
       <c r="H107">
-        <v>0.0214644339234</v>
+        <v>0.021546413343000004</v>
       </c>
     </row>
     <row r="108">
@@ -3324,16 +3324,16 @@
         <v>image/png</v>
       </c>
       <c r="E108">
-        <v>251994</v>
+        <v>251985</v>
       </c>
       <c r="F108">
         <v>251420</v>
       </c>
       <c r="G108">
-        <v>0.073283131122</v>
+        <v>0.07328051380499999</v>
       </c>
       <c r="H108">
-        <v>0.0965342143116</v>
+        <v>0.09653076657899999</v>
       </c>
     </row>
     <row r="109">
@@ -3350,16 +3350,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E109">
-        <v>20167</v>
+        <v>19944</v>
       </c>
       <c r="F109">
         <v>19690</v>
       </c>
       <c r="G109">
-        <v>0.005864825771</v>
+        <v>0.005799974471999999</v>
       </c>
       <c r="H109">
-        <v>0.0077256025938</v>
+        <v>0.0076401754416</v>
       </c>
     </row>
     <row r="110">
@@ -3376,16 +3376,16 @@
         <v>text/css</v>
       </c>
       <c r="E110">
-        <v>22057</v>
+        <v>22174</v>
       </c>
       <c r="F110">
-        <v>255939</v>
+        <v>257200</v>
       </c>
       <c r="G110">
-        <v>0.006414462340999999</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H110">
-        <v>0.0084496264398</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="111">
@@ -3419,7 +3419,7 @@
         <v>3</v>
       </c>
       <c r="B112" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.ullensaker.kommune.no%2F&amp;title=Ullensaker&amp;res=412x823&amp;accountid=6019370&amp;rt=792&amp;luid=12e8ffeb-c743-a2cb-1737-43613efade82&amp;dnt=true&amp;prev=08ea1ffd-340c-ab3a-6365-a2176da2949d&amp;rnd=36614</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.ullensaker.kommune.no%2F&amp;title=Ullensaker&amp;res=412x823&amp;accountid=6019370&amp;rt=771&amp;luid=c18ff15d-a7c2-4e20-a9f0-0f7c8c5b09d9&amp;dnt=true&amp;prev=ab54e41c-6f15-130e-ec6c-64fb88f29a2b&amp;rnd=80341</v>
       </c>
       <c r="C112" t="str">
         <v>Image</v>
@@ -3480,16 +3480,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E114">
-        <v>2064</v>
+        <v>2444</v>
       </c>
       <c r="F114">
         <v>7310</v>
       </c>
       <c r="G114">
-        <v>0.0006002380319999999</v>
+        <v>0.0007107469719999999</v>
       </c>
       <c r="H114">
-        <v>0.0007906800096</v>
+        <v>0.0009362509416</v>
       </c>
     </row>
     <row r="115">
@@ -3633,13 +3633,13 @@
         <v>text/html</v>
       </c>
       <c r="E120">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G120">
-        <v>0.000023555852999999997</v>
+        <v>0.000016867153999999998</v>
       </c>
       <c r="H120">
-        <v>0.0000310295934</v>
+        <v>0.000022218721200000005</v>
       </c>
     </row>
     <row r="121">
@@ -3656,16 +3656,16 @@
         <v>image/x-icon</v>
       </c>
       <c r="E121">
-        <v>1265</v>
+        <v>1288</v>
       </c>
       <c r="F121">
         <v>1150</v>
       </c>
       <c r="G121">
-        <v>0.000367878445</v>
+        <v>0.000374567144</v>
       </c>
       <c r="H121">
-        <v>0.00048459797099999994</v>
+        <v>0.0004934088432000001</v>
       </c>
     </row>
   </sheetData>
@@ -3704,7 +3704,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>52166</v>
+        <v>52165</v>
       </c>
       <c r="D2">
         <v>222936</v>
@@ -3718,7 +3718,7 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>355566</v>
+        <v>357864</v>
       </c>
       <c r="D3">
         <v>985797</v>
@@ -3732,7 +3732,7 @@
         <v>36</v>
       </c>
       <c r="C4">
-        <v>2615604</v>
+        <v>2616379</v>
       </c>
       <c r="D4">
         <v>8592309</v>
@@ -3746,7 +3746,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>405</v>
+        <v>336</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>36</v>
       </c>
       <c r="C6">
-        <v>1164991</v>
+        <v>1150233</v>
       </c>
       <c r="D6">
         <v>1186770</v>
@@ -3788,10 +3788,10 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>66171</v>
+        <v>66522</v>
       </c>
       <c r="D8">
-        <v>767817</v>
+        <v>771600</v>
       </c>
     </row>
     <row r="9">
@@ -3830,7 +3830,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>3749</v>
+        <v>3841</v>
       </c>
       <c r="D11">
         <v>3450</v>
@@ -3869,13 +3869,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1594994</v>
+        <v>1579801</v>
       </c>
       <c r="C2">
-        <v>0.4638449901219999</v>
+        <v>0.459426668213</v>
       </c>
       <c r="D2">
-        <v>0.6110125345116001</v>
+        <v>0.6051923788014001</v>
       </c>
     </row>
     <row r="3">
@@ -3883,13 +3883,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1578571</v>
+        <v>1580806</v>
       </c>
       <c r="C3">
-        <v>0.459068968223</v>
+        <v>0.45971893527799995</v>
       </c>
       <c r="D3">
-        <v>0.6047211886794001</v>
+        <v>0.6055773756084002</v>
       </c>
     </row>
     <row r="4">
@@ -3897,13 +3897,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1578172</v>
+        <v>1579818</v>
       </c>
       <c r="C4">
-        <v>0.45895293383599994</v>
+        <v>0.4594316120339999</v>
       </c>
       <c r="D4">
-        <v>0.6045683392008001</v>
+        <v>0.6051988911852001</v>
       </c>
     </row>
     <row r="5">
@@ -3911,13 +3911,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>1578571</v>
+        <v>1579818</v>
       </c>
       <c r="C5">
-        <v>0.459068968223</v>
+        <v>0.4594316120339999</v>
       </c>
       <c r="D5">
-        <v>0.6047211886794001</v>
+        <v>0.6051988911852001</v>
       </c>
     </row>
   </sheetData>

--- a/Midterm-exam/evidence/spreadsheets/per_site/www.ullensaker.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.ullensaker.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>11053.963500000002</v>
+        <v>11019.1715</v>
       </c>
       <c r="C2">
-        <v>8858.097</v>
+        <v>8834.638</v>
       </c>
       <c r="D2">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="E2">
-        <v>11173.613950000003</v>
+        <v>11137.572750000003</v>
       </c>
       <c r="F2">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>8858.097</v>
+        <v>8834.638</v>
       </c>
       <c r="I2">
         <v>56</v>
       </c>
       <c r="J2">
-        <v>1579801</v>
+        <v>1595133</v>
       </c>
       <c r="K2">
         <v>40</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10887.736</v>
+        <v>11054.446</v>
       </c>
       <c r="C3">
-        <v>8794.002999999999</v>
+        <v>8928.754</v>
       </c>
       <c r="D3">
-        <v>331</v>
+        <v>382</v>
       </c>
       <c r="E3">
-        <v>10997.693700000002</v>
+        <v>11181.609</v>
       </c>
       <c r="F3">
-        <v>66.5</v>
+        <v>46.5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8794.002999999999</v>
+        <v>8928.754</v>
       </c>
       <c r="I3">
         <v>56</v>
       </c>
       <c r="J3">
-        <v>1580806</v>
+        <v>1594365</v>
       </c>
       <c r="K3">
         <v>40</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10940.431500000002</v>
+        <v>11053.2065</v>
       </c>
       <c r="C4">
-        <v>8822.076</v>
+        <v>8856.689</v>
       </c>
       <c r="D4">
-        <v>326</v>
+        <v>419</v>
       </c>
       <c r="E4">
-        <v>11051.019250000001</v>
+        <v>11172.366150000002</v>
       </c>
       <c r="F4">
-        <v>68.5</v>
+        <v>70</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8822.076</v>
+        <v>8856.689</v>
       </c>
       <c r="I4">
         <v>56</v>
       </c>
       <c r="J4">
-        <v>1579818</v>
+        <v>1593992</v>
       </c>
       <c r="K4">
         <v>40</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>10940.431500000002</v>
+        <v>11053.2065</v>
       </c>
       <c r="C5">
-        <v>8822.076</v>
+        <v>8856.689</v>
       </c>
       <c r="D5">
-        <v>331</v>
+        <v>382</v>
       </c>
       <c r="E5">
-        <v>11051.019250000001</v>
+        <v>11172.366150000002</v>
       </c>
       <c r="F5">
-        <v>68.5</v>
+        <v>64</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8822.076</v>
+        <v>8856.689</v>
       </c>
       <c r="I5">
         <v>56</v>
       </c>
       <c r="J5">
-        <v>1579818</v>
+        <v>1594365</v>
       </c>
       <c r="K5">
         <v>40</v>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>17389</v>
+        <v>17388</v>
       </c>
       <c r="F2">
         <v>74312</v>
       </c>
       <c r="G2">
-        <v>0.005056947256999999</v>
+        <v>0.005056656444</v>
       </c>
       <c r="H2">
-        <v>0.006661402464599999</v>
+        <v>0.0066610193832</v>
       </c>
     </row>
     <row r="3">
@@ -738,16 +738,16 @@
         <v>text/css</v>
       </c>
       <c r="E6">
-        <v>5323</v>
+        <v>5329</v>
       </c>
       <c r="F6">
         <v>25451</v>
       </c>
       <c r="G6">
-        <v>0.0015479975989999997</v>
+        <v>0.0015497424769999998</v>
       </c>
       <c r="H6">
-        <v>0.0020391422922</v>
+        <v>0.0020414407806000003</v>
       </c>
     </row>
     <row r="7">
@@ -790,16 +790,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E8">
-        <v>458194</v>
+        <v>458185</v>
       </c>
       <c r="F8">
         <v>1348312</v>
       </c>
       <c r="G8">
-        <v>0.13324877172199998</v>
+        <v>0.13324615440499998</v>
       </c>
       <c r="H8">
-        <v>0.17552559899159997</v>
+        <v>0.175522151259</v>
       </c>
     </row>
     <row r="9">
@@ -1009,16 +1009,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E17">
-        <v>10433</v>
+        <v>10430</v>
       </c>
       <c r="F17">
         <v>30432</v>
       </c>
       <c r="G17">
-        <v>0.0030340520289999996</v>
+        <v>0.0030331795899999994</v>
       </c>
       <c r="H17">
-        <v>0.0039966882462000005</v>
+        <v>0.003995539002</v>
       </c>
     </row>
     <row r="18">
@@ -1035,16 +1035,16 @@
         <v>image/png</v>
       </c>
       <c r="E18">
-        <v>3363</v>
+        <v>3340</v>
       </c>
       <c r="F18">
         <v>3251</v>
       </c>
       <c r="G18">
-        <v>0.000978004119</v>
+        <v>0.0009713154199999999</v>
       </c>
       <c r="H18">
-        <v>0.0012883027482</v>
+        <v>0.0012794918760000002</v>
       </c>
     </row>
     <row r="19">
@@ -1061,16 +1061,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E19">
-        <v>13611</v>
+        <v>13621</v>
       </c>
       <c r="F19">
         <v>45188</v>
       </c>
       <c r="G19">
-        <v>0.003958255742999999</v>
+        <v>0.003961163873</v>
       </c>
       <c r="H19">
-        <v>0.0052141209354</v>
+        <v>0.005217951749400001</v>
       </c>
     </row>
     <row r="20">
@@ -1240,16 +1240,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E26">
-        <v>23186</v>
+        <v>23428</v>
       </c>
       <c r="F26">
         <v>22846</v>
       </c>
       <c r="G26">
-        <v>0.006742790217999999</v>
+        <v>0.0068131669639999995</v>
       </c>
       <c r="H26">
-        <v>0.008882125340400001</v>
+        <v>0.008974831039200002</v>
       </c>
     </row>
     <row r="27">
@@ -1266,16 +1266,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E27">
-        <v>56254</v>
+        <v>56022</v>
       </c>
       <c r="F27">
         <v>55638</v>
       </c>
       <c r="G27">
-        <v>0.016359394502</v>
+        <v>0.016291925885999998</v>
       </c>
       <c r="H27">
-        <v>0.021549861075600002</v>
+        <v>0.021460986190800002</v>
       </c>
     </row>
     <row r="28">
@@ -1292,16 +1292,16 @@
         <v>image/png</v>
       </c>
       <c r="E28">
-        <v>251978</v>
+        <v>251986</v>
       </c>
       <c r="F28">
         <v>251420</v>
       </c>
       <c r="G28">
-        <v>0.073278478114</v>
+        <v>0.07328080461799999</v>
       </c>
       <c r="H28">
-        <v>0.0965280850092</v>
+        <v>0.09653114966040001</v>
       </c>
     </row>
     <row r="29">
@@ -1318,16 +1318,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E29">
-        <v>19944</v>
+        <v>19953</v>
       </c>
       <c r="F29">
         <v>19690</v>
       </c>
       <c r="G29">
-        <v>0.005799974471999999</v>
+        <v>0.005802591788999999</v>
       </c>
       <c r="H29">
-        <v>0.0076401754416</v>
+        <v>0.0076436231742</v>
       </c>
     </row>
     <row r="30">
@@ -1387,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.ullensaker.kommune.no%2F&amp;title=Ullensaker&amp;res=412x823&amp;accountid=6019370&amp;rt=812&amp;luid=764eb221-2690-4560-d0b9-66f668c11bf0&amp;dnt=true&amp;prev=a41cf251-1740-3470-c430-485e4ead84bc&amp;rnd=22734</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.ullensaker.kommune.no%2F&amp;title=Ullensaker&amp;res=412x823&amp;accountid=6019370&amp;rt=749&amp;luid=c54f52bf-a5ec-1228-ac04-94a72fe58650&amp;dnt=true&amp;prev=b684d332-9d0e-e229-d28e-cd8c030068e6&amp;rnd=31535</v>
       </c>
       <c r="C32" t="str">
         <v>Image</v>
@@ -1523,16 +1523,16 @@
         <v>text/json</v>
       </c>
       <c r="E37">
-        <v>7416</v>
+        <v>7417</v>
       </c>
       <c r="F37">
         <v>28951</v>
       </c>
       <c r="G37">
-        <v>0.0021566692079999995</v>
+        <v>0.0021569600209999998</v>
       </c>
       <c r="H37">
-        <v>0.0028409316624000004</v>
+        <v>0.0028413147438</v>
       </c>
     </row>
     <row r="38">
@@ -1549,16 +1549,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E38">
-        <v>10400</v>
+        <v>25701</v>
       </c>
       <c r="F38">
         <v>25323</v>
       </c>
       <c r="G38">
-        <v>0.0030244551999999997</v>
+        <v>0.007474184912999999</v>
       </c>
       <c r="H38">
-        <v>0.003984046560000001</v>
+        <v>0.0098455750614</v>
       </c>
     </row>
     <row r="39">
@@ -1624,16 +1624,16 @@
         <v>image/x-icon</v>
       </c>
       <c r="E41">
-        <v>1265</v>
+        <v>1288</v>
       </c>
       <c r="F41">
         <v>1150</v>
       </c>
       <c r="G41">
-        <v>0.000367878445</v>
+        <v>0.000374567144</v>
       </c>
       <c r="H41">
-        <v>0.00048459797099999994</v>
+        <v>0.0004934088432000001</v>
       </c>
     </row>
     <row r="42">
@@ -1676,16 +1676,16 @@
         <v>text/css</v>
       </c>
       <c r="E43">
-        <v>645</v>
+        <v>668</v>
       </c>
       <c r="F43">
         <v>880</v>
       </c>
       <c r="G43">
-        <v>0.00018757438499999996</v>
+        <v>0.00019426308399999996</v>
       </c>
       <c r="H43">
-        <v>0.000247087503</v>
+        <v>0.00025589837520000004</v>
       </c>
     </row>
     <row r="44">
@@ -1754,16 +1754,16 @@
         <v>text/css</v>
       </c>
       <c r="E46">
-        <v>5323</v>
+        <v>4162</v>
       </c>
       <c r="F46">
         <v>25451</v>
       </c>
       <c r="G46">
-        <v>0.0015479975989999997</v>
+        <v>0.0012103637059999999</v>
       </c>
       <c r="H46">
-        <v>0.0020391422922</v>
+        <v>0.0015943847868</v>
       </c>
     </row>
     <row r="47">
@@ -1780,16 +1780,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E47">
-        <v>3577</v>
+        <v>3576</v>
       </c>
       <c r="F47">
         <v>993</v>
       </c>
       <c r="G47">
-        <v>0.0010402381009999998</v>
+        <v>0.0010399472879999998</v>
       </c>
       <c r="H47">
-        <v>0.0013702821678000003</v>
+        <v>0.0013698990864000004</v>
       </c>
     </row>
     <row r="48">
@@ -1806,16 +1806,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E48">
-        <v>458185</v>
+        <v>458194</v>
       </c>
       <c r="F48">
         <v>1348312</v>
       </c>
       <c r="G48">
-        <v>0.13324615440499998</v>
+        <v>0.13324877172199998</v>
       </c>
       <c r="H48">
-        <v>0.175522151259</v>
+        <v>0.17552559899159997</v>
       </c>
     </row>
     <row r="49">
@@ -2025,16 +2025,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E57">
-        <v>10433</v>
+        <v>10431</v>
       </c>
       <c r="F57">
         <v>30432</v>
       </c>
       <c r="G57">
-        <v>0.0030340520289999996</v>
+        <v>0.0030334704029999996</v>
       </c>
       <c r="H57">
-        <v>0.0039966882462000005</v>
+        <v>0.003995922083400001</v>
       </c>
     </row>
     <row r="58">
@@ -2077,16 +2077,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E59">
-        <v>13625</v>
+        <v>13619</v>
       </c>
       <c r="F59">
         <v>45188</v>
       </c>
       <c r="G59">
-        <v>0.003962327125</v>
+        <v>0.003960582247</v>
       </c>
       <c r="H59">
-        <v>0.005219484075000001</v>
+        <v>0.0052171855866</v>
       </c>
     </row>
     <row r="60">
@@ -2256,16 +2256,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E66">
-        <v>23467</v>
+        <v>23195</v>
       </c>
       <c r="F66">
         <v>22846</v>
       </c>
       <c r="G66">
-        <v>0.006824508670999999</v>
+        <v>0.006745407534999999</v>
       </c>
       <c r="H66">
-        <v>0.0089897712138</v>
+        <v>0.008885573073000001</v>
       </c>
     </row>
     <row r="67">
@@ -2282,16 +2282,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E67">
-        <v>56235</v>
+        <v>56245</v>
       </c>
       <c r="F67">
         <v>55638</v>
       </c>
       <c r="G67">
-        <v>0.016353869054999998</v>
+        <v>0.016356777184999997</v>
       </c>
       <c r="H67">
-        <v>0.021542582529</v>
+        <v>0.021546413343000004</v>
       </c>
     </row>
     <row r="68">
@@ -2308,16 +2308,16 @@
         <v>image/png</v>
       </c>
       <c r="E68">
-        <v>252106</v>
+        <v>251986</v>
       </c>
       <c r="F68">
         <v>251420</v>
       </c>
       <c r="G68">
-        <v>0.073315702178</v>
+        <v>0.07328080461799999</v>
       </c>
       <c r="H68">
-        <v>0.0965771194284</v>
+        <v>0.09653114966040001</v>
       </c>
     </row>
     <row r="69">
@@ -2334,16 +2334,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E69">
-        <v>20166</v>
+        <v>19944</v>
       </c>
       <c r="F69">
         <v>19690</v>
       </c>
       <c r="G69">
-        <v>0.005864534957999999</v>
+        <v>0.005799974471999999</v>
       </c>
       <c r="H69">
-        <v>0.0077252195124</v>
+        <v>0.0076401754416</v>
       </c>
     </row>
     <row r="70">
@@ -2403,7 +2403,7 @@
         <v>2</v>
       </c>
       <c r="B72" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.ullensaker.kommune.no%2F&amp;title=Ullensaker&amp;res=412x823&amp;accountid=6019370&amp;rt=749&amp;luid=97134075-012b-dcf4-0d3f-4bd596da7556&amp;dnt=true&amp;prev=1b1f88f7-9917-5ebf-59c8-d1a3e355d290&amp;rnd=53132</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.ullensaker.kommune.no%2F&amp;title=Ullensaker&amp;res=412x823&amp;accountid=6019370&amp;rt=923&amp;luid=9c54ff57-30b0-5ade-f725-7b27981bae3a&amp;dnt=true&amp;prev=a1ef343d-c480-6983-cd2e-57f218c73351&amp;rnd=46752</v>
       </c>
       <c r="C72" t="str">
         <v>Image</v>
@@ -2565,16 +2565,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E78">
-        <v>10400</v>
+        <v>25701</v>
       </c>
       <c r="F78">
         <v>25323</v>
       </c>
       <c r="G78">
-        <v>0.0030244551999999997</v>
+        <v>0.007474184912999999</v>
       </c>
       <c r="H78">
-        <v>0.003984046560000001</v>
+        <v>0.0098455750614</v>
       </c>
     </row>
     <row r="79">
@@ -2617,13 +2617,13 @@
         <v>text/html</v>
       </c>
       <c r="E80">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="G80">
-        <v>0.000016867153999999998</v>
+        <v>0.000023555852999999997</v>
       </c>
       <c r="H80">
-        <v>0.000022218721200000005</v>
+        <v>0.0000310295934</v>
       </c>
     </row>
     <row r="81">
@@ -2640,16 +2640,16 @@
         <v>image/x-icon</v>
       </c>
       <c r="E81">
-        <v>1288</v>
+        <v>1265</v>
       </c>
       <c r="F81">
         <v>1150</v>
       </c>
       <c r="G81">
-        <v>0.000374567144</v>
+        <v>0.000367878445</v>
       </c>
       <c r="H81">
-        <v>0.0004934088432000001</v>
+        <v>0.00048459797099999994</v>
       </c>
     </row>
     <row r="82">
@@ -2770,16 +2770,16 @@
         <v>text/css</v>
       </c>
       <c r="E86">
-        <v>5323</v>
+        <v>4162</v>
       </c>
       <c r="F86">
         <v>25451</v>
       </c>
       <c r="G86">
-        <v>0.0015479975989999997</v>
+        <v>0.0012103637059999999</v>
       </c>
       <c r="H86">
-        <v>0.0020391422922</v>
+        <v>0.0015943847868</v>
       </c>
     </row>
     <row r="87">
@@ -2796,16 +2796,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E87">
-        <v>3198</v>
+        <v>3577</v>
       </c>
       <c r="F87">
         <v>993</v>
       </c>
       <c r="G87">
-        <v>0.0009300199739999998</v>
+        <v>0.0010402381009999998</v>
       </c>
       <c r="H87">
-        <v>0.0012250943172000001</v>
+        <v>0.0013702821678000003</v>
       </c>
     </row>
     <row r="88">
@@ -2822,16 +2822,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E88">
-        <v>458185</v>
+        <v>458212</v>
       </c>
       <c r="F88">
         <v>1348312</v>
       </c>
       <c r="G88">
-        <v>0.13324615440499998</v>
+        <v>0.133254006356</v>
       </c>
       <c r="H88">
-        <v>0.175522151259</v>
+        <v>0.1755324944568</v>
       </c>
     </row>
     <row r="89">
@@ -3032,25 +3032,25 @@
         <v>3</v>
       </c>
       <c r="B97" t="str">
-        <v>https://www.ullensaker.kommune.no/siteassets/30-bilder/logoer/ullensaker.png</v>
+        <v>https://www.youtube.com/s/player/ef5f17ca/www-widgetapi.vflset/www-widgetapi.js</v>
       </c>
       <c r="C97" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D97" t="str">
-        <v>image/png</v>
+        <v>text/javascript</v>
       </c>
       <c r="E97">
-        <v>3340</v>
+        <v>10431</v>
       </c>
       <c r="F97">
-        <v>3251</v>
+        <v>30432</v>
       </c>
       <c r="G97">
-        <v>0.0009713154199999999</v>
+        <v>0.0030334704029999996</v>
       </c>
       <c r="H97">
-        <v>0.0012794918760000002</v>
+        <v>0.003995922083400001</v>
       </c>
     </row>
     <row r="98">
@@ -3058,25 +3058,25 @@
         <v>3</v>
       </c>
       <c r="B98" t="str">
-        <v>https://www.youtube.com/s/player/ef5f17ca/www-widgetapi.vflset/www-widgetapi.js</v>
+        <v>https://www.ullensaker.kommune.no/siteassets/30-bilder/logoer/ullensaker.png</v>
       </c>
       <c r="C98" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D98" t="str">
-        <v>text/javascript</v>
+        <v>image/png</v>
       </c>
       <c r="E98">
-        <v>10432</v>
+        <v>3363</v>
       </c>
       <c r="F98">
-        <v>30432</v>
+        <v>3251</v>
       </c>
       <c r="G98">
-        <v>0.0030337612159999994</v>
+        <v>0.000978004119</v>
       </c>
       <c r="H98">
-        <v>0.0039963051648</v>
+        <v>0.0012883027482</v>
       </c>
     </row>
     <row r="99">
@@ -3093,16 +3093,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E99">
-        <v>13622</v>
+        <v>13623</v>
       </c>
       <c r="F99">
         <v>45188</v>
       </c>
       <c r="G99">
-        <v>0.0039614546859999995</v>
+        <v>0.003961745499</v>
       </c>
       <c r="H99">
-        <v>0.005218334830800001</v>
+        <v>0.005218717912200001</v>
       </c>
     </row>
     <row r="100">
@@ -3298,16 +3298,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E107">
-        <v>56245</v>
+        <v>56021</v>
       </c>
       <c r="F107">
         <v>55638</v>
       </c>
       <c r="G107">
-        <v>0.016356777184999997</v>
+        <v>0.016291635072999997</v>
       </c>
       <c r="H107">
-        <v>0.021546413343000004</v>
+        <v>0.021460603109400005</v>
       </c>
     </row>
     <row r="108">
@@ -3324,16 +3324,16 @@
         <v>image/png</v>
       </c>
       <c r="E108">
-        <v>251985</v>
+        <v>252208</v>
       </c>
       <c r="F108">
         <v>251420</v>
       </c>
       <c r="G108">
-        <v>0.07328051380499999</v>
+        <v>0.07334536510399998</v>
       </c>
       <c r="H108">
-        <v>0.09653076657899999</v>
+        <v>0.09661619373120002</v>
       </c>
     </row>
     <row r="109">
@@ -3350,16 +3350,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E109">
-        <v>19944</v>
+        <v>19953</v>
       </c>
       <c r="F109">
         <v>19690</v>
       </c>
       <c r="G109">
-        <v>0.005799974471999999</v>
+        <v>0.005802591788999999</v>
       </c>
       <c r="H109">
-        <v>0.0076401754416</v>
+        <v>0.0076436231742</v>
       </c>
     </row>
     <row r="110">
@@ -3419,7 +3419,7 @@
         <v>3</v>
       </c>
       <c r="B112" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.ullensaker.kommune.no%2F&amp;title=Ullensaker&amp;res=412x823&amp;accountid=6019370&amp;rt=771&amp;luid=c18ff15d-a7c2-4e20-a9f0-0f7c8c5b09d9&amp;dnt=true&amp;prev=ab54e41c-6f15-130e-ec6c-64fb88f29a2b&amp;rnd=80341</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.ullensaker.kommune.no%2F&amp;title=Ullensaker&amp;res=412x823&amp;accountid=6019370&amp;rt=1032&amp;luid=2377ac30-4733-a75b-8165-54b5d9b19088&amp;dnt=true&amp;prev=4ea6070c-8ec2-8978-81bb-13dc3abb15c8&amp;rnd=68804</v>
       </c>
       <c r="C112" t="str">
         <v>Image</v>
@@ -3480,16 +3480,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E114">
-        <v>2444</v>
+        <v>2064</v>
       </c>
       <c r="F114">
         <v>7310</v>
       </c>
       <c r="G114">
-        <v>0.0007107469719999999</v>
+        <v>0.0006002380319999999</v>
       </c>
       <c r="H114">
-        <v>0.0009362509416</v>
+        <v>0.0007906800096</v>
       </c>
     </row>
     <row r="115">
@@ -3581,16 +3581,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E118">
-        <v>10400</v>
+        <v>25701</v>
       </c>
       <c r="F118">
         <v>25323</v>
       </c>
       <c r="G118">
-        <v>0.0030244551999999997</v>
+        <v>0.007474184912999999</v>
       </c>
       <c r="H118">
-        <v>0.003984046560000001</v>
+        <v>0.0098455750614</v>
       </c>
     </row>
     <row r="119">
@@ -3656,16 +3656,16 @@
         <v>image/x-icon</v>
       </c>
       <c r="E121">
-        <v>1288</v>
+        <v>1265</v>
       </c>
       <c r="F121">
         <v>1150</v>
       </c>
       <c r="G121">
-        <v>0.000374567144</v>
+        <v>0.000367878445</v>
       </c>
       <c r="H121">
-        <v>0.0004934088432000001</v>
+        <v>0.00048459797099999994</v>
       </c>
     </row>
   </sheetData>
@@ -3704,7 +3704,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>52165</v>
+        <v>52164</v>
       </c>
       <c r="D2">
         <v>222936</v>
@@ -3718,7 +3718,7 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>357864</v>
+        <v>355571</v>
       </c>
       <c r="D3">
         <v>985797</v>
@@ -3732,7 +3732,7 @@
         <v>36</v>
       </c>
       <c r="C4">
-        <v>2616379</v>
+        <v>2616403</v>
       </c>
       <c r="D4">
         <v>8592309</v>
@@ -3746,7 +3746,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>36</v>
       </c>
       <c r="C6">
-        <v>1150233</v>
+        <v>1195567</v>
       </c>
       <c r="D6">
         <v>1186770</v>
@@ -3816,7 +3816,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>22250</v>
+        <v>22251</v>
       </c>
       <c r="D10">
         <v>86853</v>
@@ -3830,7 +3830,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>3841</v>
+        <v>3818</v>
       </c>
       <c r="D11">
         <v>3450</v>
@@ -3869,13 +3869,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1579801</v>
+        <v>1595133</v>
       </c>
       <c r="C2">
-        <v>0.459426668213</v>
+        <v>0.46388541312899995</v>
       </c>
       <c r="D2">
-        <v>0.6051923788014001</v>
+        <v>0.6110657828262002</v>
       </c>
     </row>
     <row r="3">
@@ -3883,13 +3883,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1580806</v>
+        <v>1594365</v>
       </c>
       <c r="C3">
-        <v>0.45971893527799995</v>
+        <v>0.46366206874499993</v>
       </c>
       <c r="D3">
-        <v>0.6055773756084002</v>
+        <v>0.6107715763110001</v>
       </c>
     </row>
     <row r="4">
@@ -3897,13 +3897,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1579818</v>
+        <v>1593992</v>
       </c>
       <c r="C4">
-        <v>0.4594316120339999</v>
+        <v>0.46355359549599995</v>
       </c>
       <c r="D4">
-        <v>0.6051988911852001</v>
+        <v>0.6106286869488001</v>
       </c>
     </row>
     <row r="5">
@@ -3911,13 +3911,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>1579818</v>
+        <v>1594365</v>
       </c>
       <c r="C5">
-        <v>0.4594316120339999</v>
+        <v>0.46366206874499993</v>
       </c>
       <c r="D5">
-        <v>0.6051988911852001</v>
+        <v>0.6107715763110001</v>
       </c>
     </row>
   </sheetData>
